--- a/biology/Médecine/Ministère_de_la_Santé_et_du_Bien-être_(république_de_Chine)/Ministère_de_la_Santé_et_du_Bien-être_(république_de_Chine).xlsx
+++ b/biology/Médecine/Ministère_de_la_Santé_et_du_Bien-être_(république_de_Chine)/Ministère_de_la_Santé_et_du_Bien-être_(république_de_Chine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_la_Sant%C3%A9_et_du_Bien-%C3%AAtre_(r%C3%A9publique_de_Chine)</t>
+          <t>Ministère_de_la_Santé_et_du_Bien-être_(république_de_Chine)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ministère de la Santé et du Bien-être (officiellement en anglais : Ministry of Health and Welfare (MOHW), en chinois traditionnel : 衛生福利部 ; pinyin : Wèishēng Fúlì Bù) est un des ministères de la branche exécutive du gouvernement de la république de Chine (en), chargé des systèmes de santé et de protection sociale.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_la_Sant%C3%A9_et_du_Bien-%C3%AAtre_(r%C3%A9publique_de_Chine)</t>
+          <t>Ministère_de_la_Santé_et_du_Bien-être_(république_de_Chine)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'organisme est créé en tant que département de la Santé (officiellement en anglais : Department of Health (DOH), en chinois traditionnel : 衛生署 ; pinyin : Wèishēng Shǔ) le 17 mars 1971, sous l'égide du ministère de l'Intérieur[1].
-Le 23 juillet 2013, le département est remanié et élevé au statut de ministère, en tant que ministère de la Santé et du Bien-être (officiellement en anglais : Ministry of Health and Welfare (MOHW), en chinois traditionnel : 衛生福利部 ; pinyin : Wèishēng Fúlì Bù). Il englobe l'ancien département de la Santé, le Department of Social Affairs et le Child Welfare Bureau jusqu'alors rattachés au ministère de l'Intérieur, et le National Research Institute of Chinese Medicine jusqu'alors rattaché au ministère de l'Éducation[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'organisme est créé en tant que département de la Santé (officiellement en anglais : Department of Health (DOH), en chinois traditionnel : 衛生署 ; pinyin : Wèishēng Shǔ) le 17 mars 1971, sous l'égide du ministère de l'Intérieur.
+Le 23 juillet 2013, le département est remanié et élevé au statut de ministère, en tant que ministère de la Santé et du Bien-être (officiellement en anglais : Ministry of Health and Welfare (MOHW), en chinois traditionnel : 衛生福利部 ; pinyin : Wèishēng Fúlì Bù). Il englobe l'ancien département de la Santé, le Department of Social Affairs et le Child Welfare Bureau jusqu'alors rattachés au ministère de l'Intérieur, et le National Research Institute of Chinese Medicine jusqu'alors rattaché au ministère de l'Éducation,.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_la_Sant%C3%A9_et_du_Bien-%C3%AAtre_(r%C3%A9publique_de_Chine)</t>
+          <t>Ministère_de_la_Santé_et_du_Bien-être_(république_de_Chine)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,48 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Parmi l'organisation interne du ministère, on retrouve[4] :
-Départements politiques
-Department of Planning
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parmi l'organisation interne du ministère, on retrouve :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ministère_de_la_Santé_et_du_Bien-être_(république_de_Chine)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Minist%C3%A8re_de_la_Sant%C3%A9_et_du_Bien-%C3%AAtre_(r%C3%A9publique_de_Chine)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Départements politiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Department of Planning
 Department of Social Insurance
 Department of Social Assistance and Social Work
 Department of Protective Services
@@ -555,26 +606,162 @@
 Department of Medical Affairs
 Department of Mental and Oral Health
 Department of Chinese Medicine and Pharmacy
-Department of Long-Term Care
-Départements administratifs
-Department of Secretarial Affairs
+Department of Long-Term Care</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ministère_de_la_Santé_et_du_Bien-être_(république_de_Chine)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Minist%C3%A8re_de_la_Sant%C3%A9_et_du_Bien-%C3%AAtre_(r%C3%A9publique_de_Chine)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Départements administratifs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Department of Secretarial Affairs
 Department of Personnel
 Department of Civil Service Ethics
 Department of Accounting
 Department of Statistics
-Department of Information Management
-Comités
-Legal Affairs Committee
+Department of Information Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ministère_de_la_Santé_et_du_Bien-être_(république_de_Chine)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Minist%C3%A8re_de_la_Sant%C3%A9_et_du_Bien-%C3%AAtre_(r%C3%A9publique_de_Chine)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Comités</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Legal Affairs Committee
 Hospital and Social Welfare Organizations Administration Commission
 National Health Insurance Committee
 National Health Insurance Dispute Mediation Committee
 Health &amp; Welfare Workers Training Center
 Office of International Cooperation
-National Pension Supervisory Committee
-Instituts
-National Research Institute of Chinese Medicine
-Agences
-Social and Family Affairs Administration
+National Pension Supervisory Committee</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ministère_de_la_Santé_et_du_Bien-être_(république_de_Chine)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Minist%C3%A8re_de_la_Sant%C3%A9_et_du_Bien-%C3%AAtre_(r%C3%A9publique_de_Chine)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Instituts</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>National Research Institute of Chinese Medicine</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ministère_de_la_Santé_et_du_Bien-être_(république_de_Chine)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Minist%C3%A8re_de_la_Sant%C3%A9_et_du_Bien-%C3%AAtre_(r%C3%A9publique_de_Chine)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Agences</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Social and Family Affairs Administration
 Centers for Disease Control
 National Health Command Center
 Food and Drug Administration
